--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/a-Mc2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/a-Mc2r.xlsx
@@ -76,10 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>a</t>
@@ -522,25 +522,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02391833333333333</v>
+        <v>0.344207</v>
       </c>
       <c r="H2">
-        <v>0.071755</v>
+        <v>1.032621</v>
       </c>
       <c r="I2">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="J2">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,7 +549,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1642713333333334</v>
+        <v>0.1642713333333333</v>
       </c>
       <c r="N2">
         <v>0.492814</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.003929096507777778</v>
+        <v>0.05654334283266666</v>
       </c>
       <c r="R2">
-        <v>0.03536186857</v>
+        <v>0.5088900854939999</v>
       </c>
       <c r="S2">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833164</v>
       </c>
       <c r="T2">
-        <v>0.06497334241236681</v>
+        <v>0.6985282229833165</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,25 +584,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3442069999999999</v>
+        <v>0.1485533333333333</v>
       </c>
       <c r="H3">
-        <v>1.032621</v>
+        <v>0.44566</v>
       </c>
       <c r="I3">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="J3">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -611,7 +611,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1642713333333334</v>
+        <v>0.1642713333333333</v>
       </c>
       <c r="N3">
         <v>0.492814</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.05654334283266666</v>
+        <v>0.02440305413777778</v>
       </c>
       <c r="R3">
-        <v>0.5088900854939999</v>
+        <v>0.21962748724</v>
       </c>
       <c r="S3">
-        <v>0.9350266575876333</v>
+        <v>0.3014717770166836</v>
       </c>
       <c r="T3">
-        <v>0.9350266575876331</v>
+        <v>0.3014717770166836</v>
       </c>
     </row>
   </sheetData>
